--- a/files_for_lab/anova_lab_data.xlsx
+++ b/files_for_lab/anova_lab_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/himanshuaggarwal/data/01-lesson_plans/07-unit_adv_stats_feature_selecftion_Trees_ensemble_methods/7.05_/lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spicasumampouw/IronSpica/lab/Unit_7/lab-inferential-statistics-anova/files_for_lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642BCEDA-F489-CF4E-91D8-0E2205FE340A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2207934-319F-1C4D-873F-97F69DD01BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="2300" windowWidth="21900" windowHeight="12940" xr2:uid="{49703896-377D-AA4B-83EF-96E6D3254657}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>source Of Variation</t>
   </si>
@@ -90,10 +90,13 @@
     <t>200 W</t>
   </si>
   <si>
-    <t>Etching Rate</t>
-  </si>
-  <si>
     <t>&lt;0.0001</t>
+  </si>
+  <si>
+    <t>etching_rate</t>
+  </si>
+  <si>
+    <t>power</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -503,10 +506,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -695,7 +698,7 @@
         <v>35.777142857142856</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.2">

--- a/files_for_lab/anova_lab_data.xlsx
+++ b/files_for_lab/anova_lab_data.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/himanshuaggarwal/data/01-lesson_plans/07-unit_adv_stats_feature_selecftion_Trees_ensemble_methods/7.05_/lab/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642BCEDA-F489-CF4E-91D8-0E2205FE340A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2300" windowWidth="21900" windowHeight="12940" xr2:uid="{49703896-377D-AA4B-83EF-96E6D3254657}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="data_collected" sheetId="2" r:id="rId1"/>
     <sheet name="f_tables" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -99,8 +96,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,6 +115,22 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,22 +154,24 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -177,7 +192,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -236,7 +253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -288,7 +305,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -482,26 +499,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7DA315-ECA9-A947-8813-9D781649E28B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+      <selection activeCell="C9" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -509,7 +528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -517,7 +536,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -525,7 +544,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -533,7 +552,7 @@
         <v>8.7899999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -541,7 +560,7 @@
         <v>5.71</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -549,7 +568,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -557,7 +576,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -565,7 +584,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -573,7 +592,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -581,7 +600,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -589,7 +608,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -597,7 +616,7 @@
         <v>5.66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -605,7 +624,7 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -613,7 +632,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -621,7 +640,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -632,18 +651,24 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984482C8-2141-C541-A96F-877715FC3F0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:K18"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="I14" sqref="I14:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
@@ -656,7 +681,7 @@
     <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:11">
       <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
@@ -676,7 +701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:11">
       <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
@@ -698,7 +723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:11">
       <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
@@ -715,7 +740,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:11">
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
@@ -729,7 +754,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:11">
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
@@ -747,7 +772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:11">
       <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
@@ -775,7 +800,7 @@
         <v>5.7919999999999998</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:11">
       <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
@@ -803,7 +828,7 @@
         <v>6.2379999999999995</v>
       </c>
     </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:11">
       <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
@@ -831,7 +856,7 @@
         <v>8.3179999999999996</v>
       </c>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:11">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -847,7 +872,7 @@
         <v>6.7826666666666666</v>
       </c>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:11">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -866,5 +891,10 @@
     <mergeCell ref="E13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>